--- a/public/imports/Employees.xlsx
+++ b/public/imports/Employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Tipe Registrasi</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Tipe</t>
   </si>
   <si>
     <t>nidn</t>
@@ -1278,7 +1275,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1289,7 +1286,7 @@
     <col min="4" max="4" width="15.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.4285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.4285714285714" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="15.2857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1315,59 +1312,59 @@
         <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="9:10">
       <c r="I4" s="7"/>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="9:9">

--- a/public/imports/Employees.xlsx
+++ b/public/imports/Employees.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Tipe Registrasi</t>
   </si>
@@ -44,7 +44,10 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>nidn</t>
+    <t>*Catatn: Kolom tipe registrasi harus sesuai pada kilom "I"</t>
+  </si>
+  <si>
+    <t>NIDN</t>
   </si>
   <si>
     <t>00000001</t>
@@ -59,10 +62,10 @@
     <t>08052001</t>
   </si>
   <si>
-    <t>NIDN</t>
-  </si>
-  <si>
-    <t>nip</t>
+    <t>*Catatan: Nomor registrasi harus "unique" atau tidak duplikat</t>
+  </si>
+  <si>
+    <t>NIP</t>
   </si>
   <si>
     <t>00000002</t>
@@ -74,10 +77,13 @@
     <t>tendik</t>
   </si>
   <si>
-    <t>NIP</t>
+    <t>*Catatan: Tipe pekerjaan harus sesuai pada kilom "J"</t>
   </si>
   <si>
     <t>staff</t>
+  </si>
+  <si>
+    <t>*Catatan: Tanggal Lahir berformat "DDMMYYY" contoh "08052001", tanggal lahir ini akan digunakan sebagai password</t>
   </si>
 </sst>
 </file>
@@ -90,10 +96,17 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -578,137 +591,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,15 +735,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1272,10 +1291,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1287,88 +1306,101 @@
     <col min="5" max="5" width="13.4285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="24.4285714285714" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="12" max="12" width="110.285714285714" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="9:10">
-      <c r="I4" s="7"/>
+    <row r="4" spans="9:12">
+      <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="9:9">
-      <c r="I5" s="7"/>
+      <c r="I5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
